--- a/熊野_土壌モデル_橋本20180221_sandyclayloam.xlsx
+++ b/熊野_土壌モデル_橋本20180221_sandyclayloam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\buildit\3. Book examples\Ch09\最適モデル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2465A1-8471-42E9-ACC6-0018027F3CEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-375" windowWidth="7770" windowHeight="8745" tabRatio="546" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="-375" windowWidth="7770" windowHeight="8745" tabRatio="546" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kumano" sheetId="14" r:id="rId1"/>
@@ -20,9 +21,10 @@
     <sheet name="Tables" sheetId="18" r:id="rId6"/>
     <sheet name="Control" sheetId="10" r:id="rId7"/>
     <sheet name="Output" sheetId="11" r:id="rId8"/>
+    <sheet name="rain" sheetId="19" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_criteria">Control!$B$8</definedName>
@@ -180,12 +182,12 @@
     <definedName name="zr">ET!$B$2</definedName>
     <definedName name="zs0">ET!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="298">
   <si>
     <t>CONTROL</t>
   </si>
@@ -3530,6 +3532,62 @@
   </si>
   <si>
     <t>RMSE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ate</t>
+    </r>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
     <phoneticPr fontId="22"/>
   </si>
 </sst>
@@ -3751,7 +3809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3871,6 +3929,7 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9337,8 +9396,8 @@
   <dimension ref="A1:M2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9892,7 +9951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="49">
         <v>2017</v>
       </c>
@@ -9925,7 +9984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
         <v>2017</v>
       </c>
@@ -9958,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="49">
         <v>2017</v>
       </c>
@@ -9991,7 +10050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="49">
         <v>2017</v>
       </c>
@@ -10024,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="49">
         <v>2017</v>
       </c>
@@ -10057,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="49">
         <v>2017</v>
       </c>
@@ -10090,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="49">
         <v>2017</v>
       </c>
@@ -10123,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="49">
         <v>2017</v>
       </c>
@@ -10156,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="49">
         <v>2017</v>
       </c>
@@ -10189,7 +10248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="49">
         <v>2017</v>
       </c>
@@ -10222,7 +10281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="49">
         <v>2017</v>
       </c>
@@ -10255,7 +10314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="49">
         <v>2017</v>
       </c>
@@ -10288,7 +10347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="49">
         <v>2017</v>
       </c>
@@ -10321,7 +10380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="49">
         <v>2017</v>
       </c>
@@ -10354,7 +10413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="49">
         <v>2017</v>
       </c>
@@ -10386,10 +10445,24 @@
       <c r="J31" s="54">
         <v>194</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" s="16">
+        <f>AVERAGE(J2:J31)</f>
+        <v>17.133333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
+      <c r="L32" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" s="16">
+        <f>_xlfn.STDEV.P(J2:J31)</f>
+        <v>36.646721848239331</v>
+      </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F33" s="57"/>
@@ -13293,8 +13366,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14660,4 +14733,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C835788D-F2F9-48F1-AA33-EC54C131C1CB}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>Kumano!D2</f>
+        <v>43000</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>Kumano!D3</f>
+        <v>43001</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>Kumano!D4</f>
+        <v>43002</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f>Kumano!D5</f>
+        <v>43003</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f>Kumano!D6</f>
+        <v>43004</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f>Kumano!D7</f>
+        <v>43005</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>Kumano!D8</f>
+        <v>43006</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>Kumano!D9</f>
+        <v>43007</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>Kumano!D10</f>
+        <v>43008</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>Kumano!D11</f>
+        <v>43009</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>Kumano!D12</f>
+        <v>43010</v>
+      </c>
+      <c r="B12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>Kumano!D13</f>
+        <v>43011</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f>Kumano!D14</f>
+        <v>43012</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f>Kumano!D15</f>
+        <v>43013</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f>Kumano!D16</f>
+        <v>43014</v>
+      </c>
+      <c r="B16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f>Kumano!D17</f>
+        <v>43015</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f>Kumano!D18</f>
+        <v>43016</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f>Kumano!D19</f>
+        <v>43017</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f>Kumano!D20</f>
+        <v>43018</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f>Kumano!D21</f>
+        <v>43019</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f>Kumano!D22</f>
+        <v>43020</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>Kumano!D23</f>
+        <v>43021</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f>Kumano!D24</f>
+        <v>43022</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f>Kumano!D25</f>
+        <v>43023</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f>Kumano!D26</f>
+        <v>43024</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f>Kumano!D27</f>
+        <v>43025</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f>Kumano!D28</f>
+        <v>43026</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f>Kumano!D29</f>
+        <v>43027</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f>Kumano!D30</f>
+        <v>43028</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f>Kumano!D31</f>
+        <v>43029</v>
+      </c>
+      <c r="B31">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B2:B31)</f>
+        <v>17.133333333333333</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33">
+        <f>ABS(B7-B31)/SQRT(B34)</f>
+        <v>28.577783199046817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34">
+        <f>_xlfn.STDEV.P(B2:B31)</f>
+        <v>36.646721848239331</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34">
+        <f>TDIST(D33,28,2)</f>
+        <v>2.9360334263754072E-22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>